--- a/biology/Médecine/Derme/Derme.xlsx
+++ b/biology/Médecine/Derme/Derme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le derme est un tissu de type conjonctif formant la peau avec l'épiderme. Son épaisseur est variable selon les régions corporelles mais elle peut atteindre un millimètre.
 On distingue usuellement le derme papillaire jouxté à la jonction dermo-épidermique, le derme réticulaire et le derme profond.
